--- a/analyses/stacked-learn-compare/Companion Analysis.xlsx
+++ b/analyses/stacked-learn-compare/Companion Analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Files\Programming\thesis\analyses\stacked-learn-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E23AC0AE-30C8-4D76-A381-2E30488632DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0489B9EC-4334-4B59-9390-828817CD0211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Companion Time Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Isolated Times" sheetId="2" r:id="rId2"/>
+    <sheet name="Bigger Companion Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="117">
   <si>
     <t>hard/lena.png</t>
   </si>
@@ -54,12 +69,330 @@
   </si>
   <si>
     <t>Percent improvement from companion learning:</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>target_state</t>
+  </si>
+  <si>
+    <t>total_seconds</t>
+  </si>
+  <si>
+    <t>autumn-dragon-4349</t>
+  </si>
+  <si>
+    <t>sconf_imagestack("hard/water.png", "hard/arch.png")</t>
+  </si>
+  <si>
+    <t>stellar-paper-4348</t>
+  </si>
+  <si>
+    <t>sconf_image("hard/pills.png")</t>
+  </si>
+  <si>
+    <t>warm-music-4347</t>
+  </si>
+  <si>
+    <t>sconf_image("hard/arch.png")</t>
+  </si>
+  <si>
+    <t>different-dragon-4346</t>
+  </si>
+  <si>
+    <t>sconf_image("hard/water.png")</t>
+  </si>
+  <si>
+    <t>treasured-surf-4345</t>
+  </si>
+  <si>
+    <t>sconf_imagestack("hard/water.png", "hard/pills.png")</t>
+  </si>
+  <si>
+    <t>fiery-vortex-4344</t>
+  </si>
+  <si>
+    <t>exalted-sun-4343</t>
+  </si>
+  <si>
+    <t>proud-mountain-4342</t>
+  </si>
+  <si>
+    <t>comic-dust-4341</t>
+  </si>
+  <si>
+    <t>devout-fire-4340</t>
+  </si>
+  <si>
+    <t>good-disco-4339</t>
+  </si>
+  <si>
+    <t>earthy-fire-4338</t>
+  </si>
+  <si>
+    <t>pretty-violet-4337</t>
+  </si>
+  <si>
+    <t>frosty-smoke-4336</t>
+  </si>
+  <si>
+    <t>atomic-oath-4335</t>
+  </si>
+  <si>
+    <t>earnest-paper-4334</t>
+  </si>
+  <si>
+    <t>quiet-butterfly-4333</t>
+  </si>
+  <si>
+    <t>still-moon-4332</t>
+  </si>
+  <si>
+    <t>polar-feather-4331</t>
+  </si>
+  <si>
+    <t>hearty-sun-4330</t>
+  </si>
+  <si>
+    <t>usual-vortex-4329</t>
+  </si>
+  <si>
+    <t>good-flower-4328</t>
+  </si>
+  <si>
+    <t>restful-violet-4327</t>
+  </si>
+  <si>
+    <t>divine-music-4326</t>
+  </si>
+  <si>
+    <t>misty-salad-4325</t>
+  </si>
+  <si>
+    <t>glorious-feather-4324</t>
+  </si>
+  <si>
+    <t>sparkling-breeze-4323</t>
+  </si>
+  <si>
+    <t>happy-sponge-4322</t>
+  </si>
+  <si>
+    <t>radiant-cherry-4321</t>
+  </si>
+  <si>
+    <t>drawn-frog-4320</t>
+  </si>
+  <si>
+    <t>faithful-donkey-4319</t>
+  </si>
+  <si>
+    <t>fast-breeze-4318</t>
+  </si>
+  <si>
+    <t>fresh-haze-4317</t>
+  </si>
+  <si>
+    <t>lively-violet-4316</t>
+  </si>
+  <si>
+    <t>wandering-flower-4315</t>
+  </si>
+  <si>
+    <t>light-night-4314</t>
+  </si>
+  <si>
+    <t>playful-plant-4313</t>
+  </si>
+  <si>
+    <t>brisk-shape-4312</t>
+  </si>
+  <si>
+    <t>drawn-galaxy-4311</t>
+  </si>
+  <si>
+    <t>balmy-frog-4310</t>
+  </si>
+  <si>
+    <t>lemon-firebrand-4309</t>
+  </si>
+  <si>
+    <t>dutiful-sunset-4308</t>
+  </si>
+  <si>
+    <t>azure-dream-4307</t>
+  </si>
+  <si>
+    <t>denim-smoke-4306</t>
+  </si>
+  <si>
+    <t>jumping-butterfly-4305</t>
+  </si>
+  <si>
+    <t>smooth-breeze-4304</t>
+  </si>
+  <si>
+    <t>hopeful-sky-4303</t>
+  </si>
+  <si>
+    <t>ethereal-snowflake-4302</t>
+  </si>
+  <si>
+    <t>atomic-night-4301</t>
+  </si>
+  <si>
+    <t>fearless-fire-4300</t>
+  </si>
+  <si>
+    <t>amber-feather-4299</t>
+  </si>
+  <si>
+    <t>driven-thunder-4298</t>
+  </si>
+  <si>
+    <t>hardy-meadow-4297</t>
+  </si>
+  <si>
+    <t>astral-sun-4296</t>
+  </si>
+  <si>
+    <t>sunny-pine-4295</t>
+  </si>
+  <si>
+    <t>avid-lion-4294</t>
+  </si>
+  <si>
+    <t>usual-eon-4293</t>
+  </si>
+  <si>
+    <t>mild-durian-4292</t>
+  </si>
+  <si>
+    <t>woven-glade-4291</t>
+  </si>
+  <si>
+    <t>worthy-cosmos-4290</t>
+  </si>
+  <si>
+    <t>azure-brook-4289</t>
+  </si>
+  <si>
+    <t>sandy-meadow-4288</t>
+  </si>
+  <si>
+    <t>toasty-thunder-4287</t>
+  </si>
+  <si>
+    <t>serene-dust-4286</t>
+  </si>
+  <si>
+    <t>scarlet-snow-4285</t>
+  </si>
+  <si>
+    <t>rare-lake-4284</t>
+  </si>
+  <si>
+    <t>fallen-snowflake-4283</t>
+  </si>
+  <si>
+    <t>glowing-moon-4282</t>
+  </si>
+  <si>
+    <t>ethereal-wood-4281</t>
+  </si>
+  <si>
+    <t>pleasant-glitter-4280</t>
+  </si>
+  <si>
+    <t>legendary-wind-4279</t>
+  </si>
+  <si>
+    <t>astral-pond-4278</t>
+  </si>
+  <si>
+    <t>valiant-dust-4277</t>
+  </si>
+  <si>
+    <t>still-brook-4276</t>
+  </si>
+  <si>
+    <t>dazzling-haze-4275</t>
+  </si>
+  <si>
+    <t>iconic-salad-4274</t>
+  </si>
+  <si>
+    <t>super-microwave-4273</t>
+  </si>
+  <si>
+    <t>graceful-rain-4272</t>
+  </si>
+  <si>
+    <t>rose-microwave-4271</t>
+  </si>
+  <si>
+    <t>quiet-feather-4270</t>
+  </si>
+  <si>
+    <t>rose-resonance-4269</t>
+  </si>
+  <si>
+    <t>silvery-paper-4268</t>
+  </si>
+  <si>
+    <t>logical-spaceship-4267</t>
+  </si>
+  <si>
+    <t>devoted-salad-4266</t>
+  </si>
+  <si>
+    <t>sweet-sun-4265</t>
+  </si>
+  <si>
+    <t>devoted-bee-4264</t>
+  </si>
+  <si>
+    <t>colorful-leaf-4263</t>
+  </si>
+  <si>
+    <t>lively-dawn-4262</t>
+  </si>
+  <si>
+    <t>rose-totem-4261</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of total_seconds</t>
+  </si>
+  <si>
+    <t>Water/Arch Isolated Time:</t>
+  </si>
+  <si>
+    <t>Water/Arch Companions:</t>
+  </si>
+  <si>
+    <t>Improvement:</t>
+  </si>
+  <si>
+    <t>Water/Pills Isolated Time:</t>
+  </si>
+  <si>
+    <t>Water/Pills Companions:</t>
+  </si>
+  <si>
+    <t>Regression:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -207,7 +540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +720,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -549,13 +888,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -613,6 +959,727 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matthew A. Robinson" refreshedDate="44234.87175914352" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="89" xr:uid="{2E003573-8BD7-4817-A45A-6AA78DEDE0E3}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C90" sheet="Bigger Companion Data"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="89">
+        <s v="autumn-dragon-4349"/>
+        <s v="stellar-paper-4348"/>
+        <s v="warm-music-4347"/>
+        <s v="different-dragon-4346"/>
+        <s v="treasured-surf-4345"/>
+        <s v="fiery-vortex-4344"/>
+        <s v="exalted-sun-4343"/>
+        <s v="proud-mountain-4342"/>
+        <s v="comic-dust-4341"/>
+        <s v="devout-fire-4340"/>
+        <s v="good-disco-4339"/>
+        <s v="earthy-fire-4338"/>
+        <s v="pretty-violet-4337"/>
+        <s v="frosty-smoke-4336"/>
+        <s v="atomic-oath-4335"/>
+        <s v="earnest-paper-4334"/>
+        <s v="quiet-butterfly-4333"/>
+        <s v="still-moon-4332"/>
+        <s v="polar-feather-4331"/>
+        <s v="hearty-sun-4330"/>
+        <s v="usual-vortex-4329"/>
+        <s v="good-flower-4328"/>
+        <s v="restful-violet-4327"/>
+        <s v="divine-music-4326"/>
+        <s v="misty-salad-4325"/>
+        <s v="glorious-feather-4324"/>
+        <s v="sparkling-breeze-4323"/>
+        <s v="happy-sponge-4322"/>
+        <s v="radiant-cherry-4321"/>
+        <s v="drawn-frog-4320"/>
+        <s v="faithful-donkey-4319"/>
+        <s v="fast-breeze-4318"/>
+        <s v="fresh-haze-4317"/>
+        <s v="lively-violet-4316"/>
+        <s v="wandering-flower-4315"/>
+        <s v="light-night-4314"/>
+        <s v="playful-plant-4313"/>
+        <s v="brisk-shape-4312"/>
+        <s v="drawn-galaxy-4311"/>
+        <s v="balmy-frog-4310"/>
+        <s v="lemon-firebrand-4309"/>
+        <s v="dutiful-sunset-4308"/>
+        <s v="azure-dream-4307"/>
+        <s v="denim-smoke-4306"/>
+        <s v="jumping-butterfly-4305"/>
+        <s v="smooth-breeze-4304"/>
+        <s v="hopeful-sky-4303"/>
+        <s v="ethereal-snowflake-4302"/>
+        <s v="atomic-night-4301"/>
+        <s v="fearless-fire-4300"/>
+        <s v="amber-feather-4299"/>
+        <s v="driven-thunder-4298"/>
+        <s v="hardy-meadow-4297"/>
+        <s v="astral-sun-4296"/>
+        <s v="sunny-pine-4295"/>
+        <s v="avid-lion-4294"/>
+        <s v="usual-eon-4293"/>
+        <s v="mild-durian-4292"/>
+        <s v="woven-glade-4291"/>
+        <s v="worthy-cosmos-4290"/>
+        <s v="azure-brook-4289"/>
+        <s v="sandy-meadow-4288"/>
+        <s v="toasty-thunder-4287"/>
+        <s v="serene-dust-4286"/>
+        <s v="scarlet-snow-4285"/>
+        <s v="rare-lake-4284"/>
+        <s v="fallen-snowflake-4283"/>
+        <s v="glowing-moon-4282"/>
+        <s v="ethereal-wood-4281"/>
+        <s v="pleasant-glitter-4280"/>
+        <s v="legendary-wind-4279"/>
+        <s v="astral-pond-4278"/>
+        <s v="valiant-dust-4277"/>
+        <s v="still-brook-4276"/>
+        <s v="dazzling-haze-4275"/>
+        <s v="iconic-salad-4274"/>
+        <s v="super-microwave-4273"/>
+        <s v="graceful-rain-4272"/>
+        <s v="rose-microwave-4271"/>
+        <s v="quiet-feather-4270"/>
+        <s v="rose-resonance-4269"/>
+        <s v="silvery-paper-4268"/>
+        <s v="logical-spaceship-4267"/>
+        <s v="devoted-salad-4266"/>
+        <s v="sweet-sun-4265"/>
+        <s v="devoted-bee-4264"/>
+        <s v="colorful-leaf-4263"/>
+        <s v="lively-dawn-4262"/>
+        <s v="rose-totem-4261"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="target_state" numFmtId="0">
+      <sharedItems count="5">
+        <s v="sconf_imagestack(&quot;hard/water.png&quot;, &quot;hard/arch.png&quot;)"/>
+        <s v="sconf_image(&quot;hard/pills.png&quot;)"/>
+        <s v="sconf_image(&quot;hard/arch.png&quot;)"/>
+        <s v="sconf_image(&quot;hard/water.png&quot;)"/>
+        <s v="sconf_imagestack(&quot;hard/water.png&quot;, &quot;hard/pills.png&quot;)"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="total_seconds" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="313.36900043487498" maxValue="1981.36599993705"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="89">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="999.07799816131603"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="552.24000000953595"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="426.53000020980801"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1238.75799894332"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="753.89499902725197"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="1097.5369999408699"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="625.994000196456"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="346.51299858093199"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="1981.36599993705"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="927.98899698257401"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="936.57200217246998"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="636.715999364852"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="384.63899850845303"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="4"/>
+    <n v="1529.3690001964501"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="945.72499585151604"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="896.32699751853897"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="643.91900134086598"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="394.35399961471501"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="4"/>
+    <n v="1440.7560000419601"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="772.63100171089104"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="964.639996290206"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="623.69899559020996"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="3"/>
+    <n v="355.13200163841202"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="4"/>
+    <n v="1566.8619804382299"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="703.40699648857105"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="884.23999738693203"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="544.97300100326504"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="3"/>
+    <n v="383.29199647903403"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+    <n v="1440.2949998378699"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="889.53299903869595"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="904.14999985694806"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="594.89600110054005"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="3"/>
+    <n v="386.96800017356799"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="4"/>
+    <n v="1670.1559987068099"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="873.11400151252701"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="1"/>
+    <n v="1091.3709998130701"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="2"/>
+    <n v="488.26099753379799"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+    <n v="402.51898717880198"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="4"/>
+    <n v="1544.87300038337"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="983.57400012016296"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="1"/>
+    <n v="939.79100060462895"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="2"/>
+    <n v="587.05599808692898"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="3"/>
+    <n v="395.13899731636002"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="4"/>
+    <n v="1774.8059985637601"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="797.65299987792901"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="1"/>
+    <n v="1015.96000003814"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="2"/>
+    <n v="520.80599951744"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="3"/>
+    <n v="313.36900043487498"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="4"/>
+    <n v="1378.02799963951"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="0"/>
+    <n v="838.08099794387795"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="1"/>
+    <n v="956.02300071716297"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <n v="491.00399947166397"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="3"/>
+    <n v="373.29799842834399"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="4"/>
+    <n v="1698.12199831008"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="881.16299653053204"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="1"/>
+    <n v="835.51599907875004"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="2"/>
+    <n v="593.98399853706303"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="3"/>
+    <n v="375.15399885177601"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="4"/>
+    <n v="1762.5130002498599"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="771.83700037002495"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="1"/>
+    <n v="896.08499908447197"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="2"/>
+    <n v="450.00300025939902"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="3"/>
+    <n v="487.06200098991297"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="4"/>
+    <n v="1190.46699571609"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="862.860999584198"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="1"/>
+    <n v="826.31300163268997"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="2"/>
+    <n v="641.57200026512101"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="3"/>
+    <n v="394.14200091362"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="4"/>
+    <n v="1459.3959984779301"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="1051.3579988479601"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="1"/>
+    <n v="898.37199783325195"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="2"/>
+    <n v="558.715002536773"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="3"/>
+    <n v="467.64699959754898"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="4"/>
+    <n v="1605.2979991436"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="0"/>
+    <n v="834.07400178909302"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="1"/>
+    <n v="760.759999752044"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="2"/>
+    <n v="650.99699878692604"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="3"/>
+    <n v="421.05800008773798"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="4"/>
+    <n v="1543.9029991626701"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="0"/>
+    <n v="1011.08099746704"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="1"/>
+    <n v="1162.40999817848"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="2"/>
+    <n v="753.88799786567597"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="3"/>
+    <n v="409.263999462127"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="4"/>
+    <n v="1774.7830011844601"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="881.03099942207302"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="1"/>
+    <n v="1103.58400034904"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="2"/>
+    <n v="697.170998573303"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="3"/>
+    <n v="368.05522513389502"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EAE66FC-A7B0-40F1-858E-52693BA7757C}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField showAll="0">
+      <items count="90">
+        <item x="50"/>
+        <item x="71"/>
+        <item x="53"/>
+        <item x="48"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="55"/>
+        <item x="60"/>
+        <item x="42"/>
+        <item x="39"/>
+        <item x="37"/>
+        <item x="86"/>
+        <item x="8"/>
+        <item x="74"/>
+        <item x="43"/>
+        <item x="85"/>
+        <item x="83"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="23"/>
+        <item x="29"/>
+        <item x="38"/>
+        <item x="51"/>
+        <item x="41"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="47"/>
+        <item x="68"/>
+        <item x="6"/>
+        <item x="30"/>
+        <item x="66"/>
+        <item x="31"/>
+        <item x="49"/>
+        <item x="5"/>
+        <item x="32"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item x="67"/>
+        <item x="10"/>
+        <item x="21"/>
+        <item x="77"/>
+        <item x="27"/>
+        <item x="52"/>
+        <item x="19"/>
+        <item x="46"/>
+        <item x="75"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="87"/>
+        <item x="33"/>
+        <item x="82"/>
+        <item x="57"/>
+        <item x="24"/>
+        <item x="36"/>
+        <item x="69"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="79"/>
+        <item x="28"/>
+        <item x="65"/>
+        <item x="22"/>
+        <item x="78"/>
+        <item x="80"/>
+        <item x="88"/>
+        <item x="61"/>
+        <item x="64"/>
+        <item x="63"/>
+        <item x="81"/>
+        <item x="45"/>
+        <item x="26"/>
+        <item x="1"/>
+        <item x="73"/>
+        <item x="17"/>
+        <item x="54"/>
+        <item x="76"/>
+        <item x="84"/>
+        <item x="62"/>
+        <item x="4"/>
+        <item x="56"/>
+        <item x="20"/>
+        <item x="72"/>
+        <item x="34"/>
+        <item x="2"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of total_seconds" fld="2" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -911,11 +1978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,7 +2556,7 @@
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="6">
         <f>B14/B3-1</f>
         <v>0.17354548302364514</v>
       </c>
@@ -1526,7 +2593,7 @@
         <f t="shared" ref="B26:G26" si="12">B15/B4-1</f>
         <v>0.38604192547017657</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <f t="shared" si="12"/>
         <v>0.43680885454885598</v>
       </c>
@@ -1563,7 +2630,7 @@
         <f t="shared" si="13"/>
         <v>0.36724451301981498</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <f t="shared" si="13"/>
         <v>0.22898262224057131</v>
       </c>
@@ -1600,7 +2667,7 @@
         <f t="shared" si="14"/>
         <v>0.19998874534422106</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="6">
         <f t="shared" si="14"/>
         <v>0.20930919599115527</v>
       </c>
@@ -1637,7 +2704,7 @@
         <f t="shared" si="15"/>
         <v>6.5251874290557454E-2</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="6">
         <f t="shared" si="15"/>
         <v>-1.8355354319555262E-2</v>
       </c>
@@ -1674,7 +2741,7 @@
         <f t="shared" si="16"/>
         <v>-0.1931779667201946</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="6">
         <f t="shared" si="16"/>
         <v>7.8988472681189581E-2</v>
       </c>
@@ -1777,7 +2844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1841,4 +2908,1173 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E9F1A3-0D29-4098-A0C8-696A9288AB12}">
+  <dimension ref="A1:I90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="9">
+        <v>591.99411055776773</v>
+      </c>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2">
+        <f>F2+F4</f>
+        <v>985.55717742442994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>999.07799816131603</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9">
+        <v>953.81827713383404</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3">
+        <f>F5</f>
+        <v>869.35335191558352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>552.24000000953595</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9">
+        <v>393.56306686666227</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="10">
+        <f>I2/I3-1</f>
+        <v>0.13366696666297573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>426.53000020980801</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9">
+        <v>869.35335191558352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>1238.75799894332</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1564.6912334666481</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6">
+        <f>F4+F3</f>
+        <v>1347.3813440004963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>753.89499902725197</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7">
+        <f>F6</f>
+        <v>1564.6912334666481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1097.5369999408699</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="10">
+        <f>I7/I6-1</f>
+        <v>0.16128313668121552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>625.994000196456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>346.51299858093199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>1981.36599993705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>927.98899698257401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>936.57200217246998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>636.715999364852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>384.63899850845303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>1529.3690001964501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>945.72499585151604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>896.32699751853897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>643.91900134086598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>394.35399961471501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1440.7560000419601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>772.63100171089104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>964.639996290206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>623.69899559020996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>355.13200163841202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>1566.8619804382299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>703.40699648857105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>884.23999738693203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>544.97300100326504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>383.29199647903403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>1440.2949998378699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>889.53299903869595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>904.14999985694806</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>594.89600110054005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>386.96800017356799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>1670.1559987068099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>873.11400151252701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>1091.3709998130701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>488.26099753379799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>402.51898717880198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>1544.87300038337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>983.57400012016296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>939.79100060462895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>587.05599808692898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>395.13899731636002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>1774.8059985637601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>797.65299987792901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>1015.96000003814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>520.80599951744</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>313.36900043487498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>1378.02799963951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>838.08099794387795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>956.02300071716297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>491.00399947166397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>373.29799842834399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>1698.12199831008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>881.16299653053204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>835.51599907875004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>593.98399853706303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>375.15399885177601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>1762.5130002498599</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>771.83700037002495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>896.08499908447197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>450.00300025939902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65">
+        <v>487.06200098991297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>1190.46699571609</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>862.860999584198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>826.31300163268997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>641.57200026512101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70">
+        <v>394.14200091362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>1459.3959984779301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>1051.3579988479601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>898.37199783325195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>558.715002536773</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>467.64699959754898</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>1605.2979991436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>834.07400178909302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>760.759999752044</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>650.99699878692604</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80">
+        <v>421.05800008773798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <v>1543.9029991626701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82">
+        <v>1011.08099746704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83">
+        <v>1162.40999817848</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84">
+        <v>753.88799786567597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85">
+        <v>409.263999462127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86">
+        <v>1774.7830011844601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>881.03099942207302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>1103.58400034904</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89">
+        <v>697.170998573303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90">
+        <v>368.05522513389502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F36C840-D435-483F-A919-6071285F6728}">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B8"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="6" activeRow="3" previousRow="7" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" axis="axisRow" fieldPosition="0">
+          <references count="1">
+            <reference field="1" count="5">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9">
+        <v>591.99411055776773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9">
+        <v>953.81827713383404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9">
+        <v>393.56306686666227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9">
+        <v>869.35335191558352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1564.6912334666481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="9">
+        <v>866.90359242666739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>